--- a/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/SQL/Data/SCHEDULE.xlsx
+++ b/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/SQL/Data/SCHEDULE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Astra</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>74001010820221</t>
   </si>
   <si>
@@ -84,6 +81,12 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="J13" activeCellId="1" sqref="I2 J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,37 +457,37 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/SQL/Data/SCHEDULE.xlsx
+++ b/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/SQL/Data/SCHEDULE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>74001220620221</t>
+  </si>
+  <si>
+    <t>22-JUN-2022</t>
+  </si>
+  <si>
+    <t>A622</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -405,16 +417,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" activeCellId="1" sqref="I2 J13"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -490,6 +504,41 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
